--- a/output/0/tRNA-Leu-AAG-2-3.xlsx
+++ b/output/0/tRNA-Leu-AAG-2-3.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>chr14</t>
   </si>
   <si>
-    <t>21078177</t>
-  </si>
-  <si>
-    <t>21078200</t>
+    <t>21078292</t>
+  </si>
+  <si>
+    <t>21078315</t>
   </si>
   <si>
     <t>0</t>
@@ -29,154 +29,130 @@
     <t>+</t>
   </si>
   <si>
-    <t>21078197</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
+    <t>21078312</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
   </si>
   <si>
     <t>255,0,0</t>
   </si>
   <si>
-    <t>AAGAAAAGAAAGAAAAAATC</t>
+    <t>TAGCGTGGCCGAGCGGTCTA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>21078298</t>
+  </si>
+  <si>
+    <t>21078321</t>
+  </si>
+  <si>
+    <t>21078318</t>
+  </si>
+  <si>
+    <t>GGCCGAGCGGTCTAAGGCGC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>21078300</t>
+  </si>
+  <si>
+    <t>21078323</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>21078303</t>
+  </si>
+  <si>
+    <t>ATCCAGCGCCTTAGACCGCT</t>
   </si>
   <si>
     <t>CGG</t>
   </si>
   <si>
-    <t>43% (48)</t>
+    <t>78% (59)</t>
   </si>
   <si>
     <t>48% (44)</t>
   </si>
   <si>
-    <t>18</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>21078305</t>
+  </si>
+  <si>
+    <t>21078328</t>
+  </si>
+  <si>
+    <t>21078325</t>
+  </si>
+  <si>
+    <t>CGGTCTAAGGCGCTGGATTA</t>
+  </si>
+  <si>
+    <t>9% (31)</t>
+  </si>
+  <si>
+    <t>44% (42)</t>
+  </si>
+  <si>
+    <t>21078320</t>
+  </si>
+  <si>
+    <t>21078343</t>
+  </si>
+  <si>
+    <t>21078340</t>
+  </si>
+  <si>
+    <t>GATTAAGGCTCCAGTCTCTT</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 43%, Moreno-Mateos: 48%</t>
-  </si>
-  <si>
-    <t>21078292</t>
-  </si>
-  <si>
-    <t>21078315</t>
-  </si>
-  <si>
-    <t>21078312</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>TAGCGTGGCCGAGCGGTCTA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>21078298</t>
-  </si>
-  <si>
-    <t>21078321</t>
-  </si>
-  <si>
-    <t>21078318</t>
-  </si>
-  <si>
-    <t>GGCCGAGCGGTCTAAGGCGC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>21078300</t>
-  </si>
-  <si>
-    <t>21078323</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>21078303</t>
-  </si>
-  <si>
-    <t>ATCCAGCGCCTTAGACCGCT</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>21078305</t>
-  </si>
-  <si>
-    <t>21078328</t>
-  </si>
-  <si>
-    <t>21078325</t>
-  </si>
-  <si>
-    <t>CGGTCTAAGGCGCTGGATTA</t>
-  </si>
-  <si>
-    <t>9% (31)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>21078320</t>
-  </si>
-  <si>
-    <t>21078343</t>
-  </si>
-  <si>
-    <t>21078340</t>
-  </si>
-  <si>
-    <t>GATTAAGGCTCCAGTCTCTT</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>21078344</t>
@@ -338,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,22 +358,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -408,10 +384,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -420,16 +396,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -441,22 +417,22 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -467,55 +443,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
@@ -526,55 +502,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -585,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -597,43 +573,43 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
-      </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
@@ -644,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -656,43 +632,43 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>13</v>
-      </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
         <v>3</v>
@@ -703,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -715,16 +691,16 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -733,25 +709,25 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
-        <v>61</v>
-      </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
@@ -762,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -774,43 +750,43 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="P8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>68</v>
-      </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
         <v>3</v>
@@ -821,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -833,43 +809,43 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
       <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>74</v>
-      </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
         <v>3</v>
@@ -880,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -892,43 +868,43 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>77</v>
       </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
@@ -939,116 +915,57 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>80</v>
       </c>
       <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>83</v>
       </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>84</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>61</v>
-      </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
         <v>3</v>
       </c>
     </row>
